--- a/resultado_final_2.xlsx
+++ b/resultado_final_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTOS\CURSOS\CURSO_PYTHON_DALTO\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC543FB7-E71F-4E8B-B00F-381F0CE0C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB1C391-472F-4786-AF5A-2A10C0091C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
